--- a/despasito/examples/hexane_heptane/Comparison.xlsx
+++ b/despasito/examples/hexane_heptane/Comparison.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/bin/DESPASITO/despasito/despasito/examples/hexane_heptane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3420F-A99C-0A4E-9B09-3FC6E96E58A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA0C31-1A63-1044-A51C-4E2D2BC1A5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22180" windowHeight="10980" xr2:uid="{A45715C8-7133-A340-ADEA-03B6CBD95D09}"/>
+    <workbookView xWindow="3180" yWindow="460" windowWidth="22180" windowHeight="10980" xr2:uid="{A45715C8-7133-A340-ADEA-03B6CBD95D09}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Derivative" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t># P [Pa]</t>
   </si>
@@ -54,12 +54,6 @@
     <t xml:space="preserve"> phil2</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Other Group</t>
-  </si>
-  <si>
     <t>xi</t>
   </si>
   <si>
@@ -78,36 +72,41 @@
     <t>ln phi2</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>VR-parameters</t>
   </si>
   <si>
     <t>gamma_mie parameters</t>
+  </si>
+  <si>
+    <t>APDD</t>
+  </si>
+  <si>
+    <t>ref ln phi1</t>
+  </si>
+  <si>
+    <t>ref ln phi2</t>
+  </si>
+  <si>
+    <t>ref v</t>
+  </si>
+  <si>
+    <t>Old Derivative</t>
+  </si>
+  <si>
+    <t>JIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="HelveticaNeue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="HelveticaNeue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,10 +129,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,370 +444,889 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC31E52B-0354-694E-8BB7-C09E2AE66E34}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E2719B-E892-E04B-BE13-036557DDA31C}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>320</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>6941.8084429108503</v>
+      </c>
+      <c r="H2">
+        <v>0.59470268816377903</v>
+      </c>
+      <c r="I2">
+        <v>0.20355023555104301</v>
+      </c>
+      <c r="J2">
+        <f>1/G2</f>
+        <v>1.4405468088380129E-4</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:L5" si="0">LN(H2)</f>
+        <v>-0.51969368207839428</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>-1.5918424468191639</v>
+      </c>
+      <c r="M2">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N2">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O2">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P2">
+        <f>(J2-M2)/M2*100</f>
+        <v>-0.20873335102019486</v>
+      </c>
+      <c r="Q2">
+        <f>(K2-N2)/N2*100</f>
+        <v>2.3220480563879233</v>
+      </c>
+      <c r="R2">
+        <f>(L2-O2)/O2*100</f>
+        <v>-1.5984146121552851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>320</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3">
+        <v>39.5209531997371</v>
+      </c>
+      <c r="H3">
+        <v>0.96231640203155899</v>
+      </c>
+      <c r="I3">
+        <v>0.94823020047261597</v>
+      </c>
+      <c r="J3">
+        <f>1/G3</f>
+        <v>2.5303033430040148E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>-3.8411982151552206E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-5.3157978702181911E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N3">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O3">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P5" si="1">(J3-M3)/M3*100</f>
+        <v>-3.8198306981176828E-3</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="2">(K3-N3)/N3*100</f>
+        <v>0.24003692993790626</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R5" si="3">(L3-O3)/O3*100</f>
+        <v>0.16577859842078818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>320</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>6929.1200318712399</v>
+      </c>
+      <c r="H4">
+        <v>0.475678867095706</v>
+      </c>
+      <c r="I4">
+        <v>0.16814424731528499</v>
+      </c>
+      <c r="J4">
+        <f>1/G4</f>
+        <v>1.4431846979131425E-4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-0.7430123013873341</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-1.7829330530059184</v>
+      </c>
+      <c r="M4">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N4">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O4">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>-2.5998371169714575E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>46.291061505677114</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>10.214072634352384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>39.575642360316898</v>
+      </c>
+      <c r="H5">
+        <v>0.96090106903295003</v>
+      </c>
+      <c r="I5">
+        <v>0.94712525590936403</v>
+      </c>
+      <c r="J5">
+        <f>1/G5</f>
+        <v>2.5268067436416783E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-3.9883821166543827E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-5.4323928534659824E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N5">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O5">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>-0.14200349187170891</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>4.0809529398325353</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2.3627822397961649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="D8">
+        <v>320</v>
+      </c>
+      <c r="E8">
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>6941.8084429108503</v>
+      </c>
+      <c r="H8">
+        <v>0.582447726347877</v>
+      </c>
+      <c r="I8">
+        <v>0.19263965375883099</v>
+      </c>
+      <c r="J8">
+        <f>1/G8</f>
+        <v>1.4405468088380129E-4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:L11" si="4">LN(H8)</f>
+        <v>-0.5405158377444903</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>-1.6469339142115571</v>
+      </c>
+      <c r="M8">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N8">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O8">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P8">
+        <f>(J8-M8)/M8*100</f>
+        <v>-0.20873335102019486</v>
+      </c>
+      <c r="Q8">
+        <f>(K8-N8)/N8*100</f>
+        <v>6.4217046159657967</v>
+      </c>
+      <c r="R8">
+        <f>(L8-O8)/O8*100</f>
+        <v>1.8071282816070466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>320</v>
+      </c>
+      <c r="E9">
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9">
+        <v>39.5209531997371</v>
+      </c>
+      <c r="H9">
+        <v>0.96233310856237697</v>
+      </c>
+      <c r="I9">
+        <v>0.94825282380912301</v>
+      </c>
+      <c r="J9">
+        <f>1/G9</f>
+        <v>2.5303033430040148E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>-3.8394621556050078E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>-5.3134120501271642E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N9">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O9">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:R11" si="5">(J9-M9)/M9*100</f>
+        <v>-3.8198306981176828E-3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.19473266192609062</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>0.12082250098293403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <v>6929.1200318712399</v>
+      </c>
+      <c r="H10">
+        <v>0.466394355322859</v>
+      </c>
+      <c r="I10">
+        <v>0.15982399564498301</v>
+      </c>
+      <c r="J10">
+        <f>1/G10</f>
+        <v>1.4431846979131425E-4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>-0.76272374667162424</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>-1.8336820964411735</v>
+      </c>
+      <c r="M10">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N10">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O10">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-2.5998371169714575E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>50.172031240721452</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>13.351183559446969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>320</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+      <c r="G11">
+        <v>39.575642360316898</v>
+      </c>
+      <c r="H11">
+        <v>0.96091822284313899</v>
+      </c>
+      <c r="I11">
+        <v>0.94714823534553005</v>
+      </c>
+      <c r="J11">
+        <f>1/G11</f>
+        <v>2.5268067436416783E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-3.986596952954348E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>-5.4299666529967011E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N11">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O11">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>-0.14200349187170891</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>4.0343672482867428</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>2.3170652533766951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>320</v>
       </c>
-      <c r="D4">
+      <c r="E15">
         <v>0.4</v>
       </c>
-      <c r="E4">
+      <c r="F15">
         <v>0.6</v>
       </c>
-      <c r="F4">
-        <v>7086.5120541118704</v>
-      </c>
-      <c r="G4">
-        <v>1.5204251639344999</v>
-      </c>
-      <c r="H4">
-        <v>0.47671780723222101</v>
-      </c>
-      <c r="I4">
-        <f>1/F4</f>
-        <v>1.4111314457156127E-4</v>
-      </c>
-      <c r="J4">
-        <f>LN(G4)</f>
-        <v>0.41899000886056764</v>
-      </c>
-      <c r="K4">
-        <f>LN(H4)</f>
-        <v>-0.74083056225146449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="G15">
+        <v>6538.8634587093802</v>
+      </c>
+      <c r="H15">
+        <v>0.23975849904136601</v>
+      </c>
+      <c r="I15">
+        <v>8.4551595571594307E-2</v>
+      </c>
+      <c r="J15">
+        <f>1/G15</f>
+        <v>1.5293177573054521E-4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K18" si="6">LN(H15)</f>
+        <v>-1.4281231162478876</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:L18" si="7">LN(I15)</f>
+        <v>-2.4703933324780065</v>
+      </c>
+      <c r="M15">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N15">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O15">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P15">
+        <f>(J15-M15)/M15*100</f>
+        <v>5.9407130500604106</v>
+      </c>
+      <c r="Q15">
+        <f>(K15-N15)/N15*100</f>
+        <v>181.1819484638487</v>
+      </c>
+      <c r="R15">
+        <f>(L15-O15)/O15*100</f>
+        <v>52.710226400321858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C5">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>320</v>
       </c>
-      <c r="D5">
+      <c r="E16">
         <v>0.4</v>
       </c>
-      <c r="E5">
+      <c r="F16">
         <v>0.6</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G16">
+        <v>41.404368975106102</v>
+      </c>
+      <c r="H16">
+        <v>4.1846523478043102E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.1799705958433601E-2</v>
+      </c>
+      <c r="J16">
+        <f>1/G16</f>
+        <v>2.4152040587823918E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>-3.1737465565117424</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>-3.4482982358288941</v>
+      </c>
+      <c r="M16">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N16">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O16">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P18" si="8">(J16-M16)/M16*100</f>
+        <v>-4.5524794980085455</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q18" si="9">(K16-N16)/N16*100</f>
+        <v>8182.2196151141497</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R18" si="10">(L16-O16)/O16*100</f>
+        <v>6397.6412960785647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>320</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>6433.3214963258297</v>
+      </c>
+      <c r="H17">
+        <v>0.17919071352847599</v>
+      </c>
+      <c r="I17">
+        <v>5.1077082399313599E-2</v>
+      </c>
+      <c r="J17">
+        <f>1/G17</f>
+        <v>1.5544070051078834E-4</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>-1.7193046016118052</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>-2.974419367708435</v>
+      </c>
+      <c r="M17">
         <v>1.44356E-4</v>
       </c>
-      <c r="J5">
+      <c r="N17">
         <v>-0.50790000000000002</v>
       </c>
-      <c r="K5">
+      <c r="O17">
         <v>-1.6176999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>7.6787251730363399</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>238.51242402280079</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>83.867179805182374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>320</v>
       </c>
-      <c r="D7">
+      <c r="E18">
         <v>0.4</v>
       </c>
-      <c r="E7">
+      <c r="F18">
         <v>0.6</v>
       </c>
-      <c r="F7">
-        <v>37.570084856990803</v>
-      </c>
-      <c r="G7">
-        <v>8.3104490752639002</v>
-      </c>
-      <c r="H7">
-        <v>10.60562914362</v>
-      </c>
-      <c r="I7">
-        <f>1/F7</f>
-        <v>2.6616921516319822E-2</v>
-      </c>
-      <c r="J7">
-        <f>LN(G7)</f>
-        <v>2.117513647751863</v>
-      </c>
-      <c r="K7">
-        <f>LN(H7)</f>
-        <v>2.3613849114450951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C8">
-        <v>320</v>
-      </c>
-      <c r="D8">
-        <v>0.4</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8">
+      <c r="G18">
+        <v>41.330694571090703</v>
+      </c>
+      <c r="H18">
+        <v>3.6974078779730801E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.57775659084732E-2</v>
+      </c>
+      <c r="J18">
+        <f>1/G18</f>
+        <v>2.4195093026562954E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>-3.2975381853750054</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>-4.1491662271434624</v>
+      </c>
+      <c r="M18">
         <v>2.5304E-2</v>
       </c>
-      <c r="J8">
+      <c r="N18">
         <v>-3.832E-2</v>
       </c>
-      <c r="K8">
+      <c r="O18">
         <v>-5.3069999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>320</v>
-      </c>
-      <c r="D12">
-        <v>0.4</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>7165.3227342360196</v>
-      </c>
-      <c r="G12">
-        <v>1.40574208811637</v>
-      </c>
-      <c r="H12">
-        <v>0.79491316878779095</v>
-      </c>
-      <c r="I12">
-        <f>1/F12</f>
-        <v>1.395610549713253E-4</v>
-      </c>
-      <c r="J12">
-        <f>LN(G12)</f>
-        <v>0.34056533994482813</v>
-      </c>
-      <c r="K12">
-        <f>LN(H12)</f>
-        <v>-0.22952239194350141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C13">
-        <v>320</v>
-      </c>
-      <c r="D13">
-        <v>0.4</v>
-      </c>
-      <c r="E13">
-        <v>0.6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.44356E-4</v>
-      </c>
-      <c r="J13">
-        <v>-0.50790000000000002</v>
-      </c>
-      <c r="K13">
-        <v>-1.6176999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>320</v>
-      </c>
-      <c r="D15">
-        <v>0.4</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>37.440987549982196</v>
-      </c>
-      <c r="G15">
-        <v>10.7399304198173</v>
-      </c>
-      <c r="H15">
-        <v>69.200064678632003</v>
-      </c>
-      <c r="I15">
-        <f>1/F15</f>
-        <v>2.6708697217589162E-2</v>
-      </c>
-      <c r="J15">
-        <f>LN(G15)</f>
-        <v>2.3739686104579913</v>
-      </c>
-      <c r="K15">
-        <f>LN(H15)</f>
-        <v>4.2370017972854992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C16">
-        <v>320</v>
-      </c>
-      <c r="D16">
-        <v>0.4</v>
-      </c>
-      <c r="E16">
-        <v>0.6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>2.5304E-2</v>
-      </c>
-      <c r="J16">
-        <v>-3.832E-2</v>
-      </c>
-      <c r="K16">
-        <v>-5.3069999999999999E-2</v>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>-4.3823386556949337</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>8505.2666632959426</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>7718.2894802024921</v>
       </c>
     </row>
   </sheetData>

--- a/despasito/examples/hexane_heptane/Comparison.xlsx
+++ b/despasito/examples/hexane_heptane/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/bin/DESPASITO/despasito/despasito/examples/hexane_heptane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA0C31-1A63-1044-A51C-4E2D2BC1A5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3B98B-0221-C54F-AF22-0881608596F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="460" windowWidth="22180" windowHeight="10980" xr2:uid="{A45715C8-7133-A340-ADEA-03B6CBD95D09}"/>
+    <workbookView xWindow="10280" yWindow="460" windowWidth="24240" windowHeight="14420" xr2:uid="{A45715C8-7133-A340-ADEA-03B6CBD95D09}"/>
   </bookViews>
   <sheets>
     <sheet name="New Derivative" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t># P [Pa]</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>JIT</t>
+  </si>
+  <si>
+    <t>Muller quadrature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,8 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E2719B-E892-E04B-BE13-036557DDA31C}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
@@ -461,7 +472,7 @@
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -533,19 +544,19 @@
       <c r="I2">
         <v>0.20355023555104301</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f>1/G2</f>
         <v>1.4405468088380129E-4</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <f t="shared" ref="K2:L5" si="0">LN(H2)</f>
         <v>-0.51969368207839428</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f t="shared" si="0"/>
         <v>-1.5918424468191639</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>1.44356E-4</v>
       </c>
       <c r="N2">
@@ -567,7 +578,7 @@
         <v>-1.5984146121552851</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -592,19 +603,19 @@
       <c r="I3">
         <v>0.94823020047261597</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>1/G3</f>
         <v>2.5303033430040148E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
         <v>-3.8411982151552206E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>-5.3157978702181911E-2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>2.5304E-2</v>
       </c>
       <c r="N3">
@@ -626,7 +637,7 @@
         <v>0.16577859842078818</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -688,7 +699,7 @@
         <v>10.214072634352384</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -747,12 +758,12 @@
         <v>2.3627822397961649</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -796,7 +807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -858,7 +869,7 @@
         <v>1.8071282816070466</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -917,7 +928,7 @@
         <v>0.12082250098293403</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -979,7 +990,7 @@
         <v>13.351183559446969</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1038,12 +1049,12 @@
         <v>2.3170652533766951</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1120,11 +1131,11 @@
         <v>1.5293177573054521E-4</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:K18" si="6">LN(H15)</f>
+        <f>LN(H15)</f>
         <v>-1.4281231162478876</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L18" si="7">LN(I15)</f>
+        <f t="shared" ref="L15:L18" si="6">LN(I15)</f>
         <v>-2.4703933324780065</v>
       </c>
       <c r="M15">
@@ -1149,7 +1160,7 @@
         <v>52.710226400321858</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -1179,11 +1190,11 @@
         <v>2.4152040587823918E-2</v>
       </c>
       <c r="K16">
+        <f t="shared" ref="K15:K18" si="7">LN(H16)</f>
+        <v>-3.1737465565117424</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="6"/>
-        <v>-3.1737465565117424</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="7"/>
         <v>-3.4482982358288941</v>
       </c>
       <c r="M16">
@@ -1208,7 +1219,7 @@
         <v>6397.6412960785647</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1241,11 +1252,11 @@
         <v>1.5544070051078834E-4</v>
       </c>
       <c r="K17">
+        <f t="shared" si="7"/>
+        <v>-1.7193046016118052</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="6"/>
-        <v>-1.7193046016118052</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="7"/>
         <v>-2.974419367708435</v>
       </c>
       <c r="M17">
@@ -1270,7 +1281,7 @@
         <v>83.867179805182374</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -1300,11 +1311,11 @@
         <v>2.4195093026562954E-2</v>
       </c>
       <c r="K18">
+        <f t="shared" si="7"/>
+        <v>-3.2975381853750054</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="6"/>
-        <v>-3.2975381853750054</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="7"/>
         <v>-4.1491662271434624</v>
       </c>
       <c r="M18">
@@ -1327,6 +1338,253 @@
       <c r="R18">
         <f t="shared" si="10"/>
         <v>7718.2894802024921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>320</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>6934.7742909341096</v>
+      </c>
+      <c r="H20">
+        <v>0.59975345894936405</v>
+      </c>
+      <c r="I20">
+        <v>0.198377670948923</v>
+      </c>
+      <c r="J20" s="1">
+        <f>1/G20</f>
+        <v>1.4420079991749822E-4</v>
+      </c>
+      <c r="K20" s="1">
+        <f>LN(H20)</f>
+        <v>-0.51123660996030784</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L21" si="11">LN(I20)</f>
+        <v>-1.6175826360854459</v>
+      </c>
+      <c r="M20">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N20">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O20">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P20">
+        <f>(J20-M20)/M20*100</f>
+        <v>-0.1075120414127456</v>
+      </c>
+      <c r="Q20">
+        <f>(K20-N20)/N20*100</f>
+        <v>0.65694230366367856</v>
+      </c>
+      <c r="R20">
+        <f>(L20-O20)/O20*100</f>
+        <v>-7.2549863728731878E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>320</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
+      </c>
+      <c r="F21">
+        <v>0.6</v>
+      </c>
+      <c r="G21">
+        <v>39.518709018646398</v>
+      </c>
+      <c r="H21">
+        <v>0.96238064443974802</v>
+      </c>
+      <c r="I21">
+        <v>0.94829976904272095</v>
+      </c>
+      <c r="J21" s="1">
+        <f>1/G21</f>
+        <v>2.5304470333992003E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21" si="12">LN(H21)</f>
+        <v>-3.8345226286434976E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.3084614641234366E-2</v>
+      </c>
+      <c r="M21">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N21">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O21">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21" si="13">(J21-M21)/M21*100</f>
+        <v>1.8587337654249751E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21" si="14">(K21-N21)/N21*100</f>
+        <v>6.5830601343883494E-2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21" si="15">(L21-O21)/O21*100</f>
+        <v>2.7538423279380605E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>320</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23">
+        <v>0.6</v>
+      </c>
+      <c r="G23">
+        <v>6926.8573690000003</v>
+      </c>
+      <c r="H23">
+        <v>0.60173382348734095</v>
+      </c>
+      <c r="I23">
+        <v>0.198336089672183</v>
+      </c>
+      <c r="J23" s="1">
+        <f>1/G23</f>
+        <v>1.4436561152180409E-4</v>
+      </c>
+      <c r="K23" s="1">
+        <f>LN(H23)</f>
+        <v>-0.50794008512758904</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L24" si="16">LN(I23)</f>
+        <v>-1.6177922646943814</v>
+      </c>
+      <c r="M23">
+        <v>1.44356E-4</v>
+      </c>
+      <c r="N23">
+        <v>-0.50790000000000002</v>
+      </c>
+      <c r="O23">
+        <v>-1.6176999999999999</v>
+      </c>
+      <c r="P23">
+        <f>(J23-M23)/M23*100</f>
+        <v>6.6582073513355442E-3</v>
+      </c>
+      <c r="Q23">
+        <f>(K23-N23)/N23*100</f>
+        <v>7.892326755073429E-3</v>
+      </c>
+      <c r="R23">
+        <f>(L23-O23)/O23*100</f>
+        <v>5.7034489943441503E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>320</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>39.518145643857302</v>
+      </c>
+      <c r="H24">
+        <v>0.96239830678025595</v>
+      </c>
+      <c r="I24">
+        <v>0.94831340746703496</v>
+      </c>
+      <c r="J24" s="1">
+        <f>1/G24</f>
+        <v>2.5304831077149492E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24" si="17">LN(H24)</f>
+        <v>-3.8326873695352003E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="16"/>
+        <v>-5.3070232768870344E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.5304E-2</v>
+      </c>
+      <c r="N24">
+        <v>-3.832E-2</v>
+      </c>
+      <c r="O24">
+        <v>-5.3069999999999999E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24" si="18">(J24-M24)/M24*100</f>
+        <v>3.2843706508512683E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24" si="19">(K24-N24)/N24*100</f>
+        <v>1.7937618350737636E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R24" si="20">(L24-O24)/O24*100</f>
+        <v>4.386072552198589E-4</v>
       </c>
     </row>
   </sheetData>
